--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Btc-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Btc-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,40 +543,40 @@
         <v>0.575142</v>
       </c>
       <c r="I2">
-        <v>0.09369188973541917</v>
+        <v>0.08059215988451403</v>
       </c>
       <c r="J2">
-        <v>0.09369188973541917</v>
+        <v>0.08059215988451404</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.720171333333333</v>
+        <v>3.020000333333333</v>
       </c>
       <c r="N2">
-        <v>5.160513999999999</v>
+        <v>9.060001</v>
       </c>
       <c r="O2">
-        <v>0.1961456356393658</v>
+        <v>0.291481777372034</v>
       </c>
       <c r="P2">
-        <v>0.1961456356393657</v>
+        <v>0.291481777372034</v>
       </c>
       <c r="Q2">
-        <v>0.3297809269986667</v>
+        <v>0.5789763439046668</v>
       </c>
       <c r="R2">
-        <v>2.968028342988</v>
+        <v>5.210787095142</v>
       </c>
       <c r="S2">
-        <v>0.01837725526640716</v>
+        <v>0.02349114600538929</v>
       </c>
       <c r="T2">
-        <v>0.01837725526640716</v>
+        <v>0.02349114600538929</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +605,10 @@
         <v>0.575142</v>
       </c>
       <c r="I3">
-        <v>0.09369188973541917</v>
+        <v>0.08059215988451403</v>
       </c>
       <c r="J3">
-        <v>0.09369188973541917</v>
+        <v>0.08059215988451404</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +623,10 @@
         <v>12.229166</v>
       </c>
       <c r="O3">
-        <v>0.464817562438416</v>
+        <v>0.3934413518781783</v>
       </c>
       <c r="P3">
-        <v>0.464817562438416</v>
+        <v>0.3934413518781784</v>
       </c>
       <c r="Q3">
         <v>0.7815007768413333</v>
@@ -632,10 +635,10 @@
         <v>7.033506991572001</v>
       </c>
       <c r="S3">
-        <v>0.04354963580706639</v>
+        <v>0.03170828833574549</v>
       </c>
       <c r="T3">
-        <v>0.04354963580706639</v>
+        <v>0.0317082883357455</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +667,10 @@
         <v>0.575142</v>
       </c>
       <c r="I4">
-        <v>0.09369188973541917</v>
+        <v>0.08059215988451403</v>
       </c>
       <c r="J4">
-        <v>0.09369188973541917</v>
+        <v>0.08059215988451404</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.973308</v>
+        <v>3.229698</v>
       </c>
       <c r="N4">
-        <v>8.919924</v>
+        <v>9.689094000000001</v>
       </c>
       <c r="O4">
-        <v>0.3390368019222182</v>
+        <v>0.311721195201271</v>
       </c>
       <c r="P4">
-        <v>0.3390368019222182</v>
+        <v>0.3117211952012711</v>
       </c>
       <c r="Q4">
-        <v>0.570024769912</v>
+        <v>0.6191783223720001</v>
       </c>
       <c r="R4">
-        <v>5.130222929208</v>
+        <v>5.572604901348001</v>
       </c>
       <c r="S4">
-        <v>0.03176499866194562</v>
+        <v>0.02512228440305264</v>
       </c>
       <c r="T4">
-        <v>0.03176499866194562</v>
+        <v>0.02512228440305265</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -711,55 +714,55 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.854503666666667</v>
+        <v>0.191714</v>
       </c>
       <c r="H5">
-        <v>5.563511</v>
+        <v>0.575142</v>
       </c>
       <c r="I5">
-        <v>0.9063081102645809</v>
+        <v>0.08059215988451403</v>
       </c>
       <c r="J5">
-        <v>0.9063081102645809</v>
+        <v>0.08059215988451404</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.720171333333333</v>
+        <v>0.03476766666666667</v>
       </c>
       <c r="N5">
-        <v>5.160513999999999</v>
+        <v>0.104303</v>
       </c>
       <c r="O5">
-        <v>0.1961456356393658</v>
+        <v>0.003355675548516525</v>
       </c>
       <c r="P5">
-        <v>0.1961456356393657</v>
+        <v>0.003355675548516525</v>
       </c>
       <c r="Q5">
-        <v>3.190064044961555</v>
+        <v>0.006665448447333334</v>
       </c>
       <c r="R5">
-        <v>28.710576404654</v>
+        <v>0.05998903602600001</v>
       </c>
       <c r="S5">
-        <v>0.1777683803729586</v>
+        <v>0.0002704411403265981</v>
       </c>
       <c r="T5">
-        <v>0.1777683803729586</v>
+        <v>0.0002704411403265982</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,7 +776,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.854503666666667</v>
+        <v>2.187103</v>
       </c>
       <c r="H6">
-        <v>5.563511</v>
+        <v>6.561309</v>
       </c>
       <c r="I6">
-        <v>0.9063081102645809</v>
+        <v>0.9194078401154859</v>
       </c>
       <c r="J6">
-        <v>0.9063081102645809</v>
+        <v>0.919407840115486</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.076388666666666</v>
+        <v>3.020000333333333</v>
       </c>
       <c r="N6">
-        <v>12.229166</v>
+        <v>9.060001</v>
       </c>
       <c r="O6">
-        <v>0.464817562438416</v>
+        <v>0.291481777372034</v>
       </c>
       <c r="P6">
-        <v>0.464817562438416</v>
+        <v>0.291481777372034</v>
       </c>
       <c r="Q6">
-        <v>7.559677729091778</v>
+        <v>6.605051789034333</v>
       </c>
       <c r="R6">
-        <v>68.037099561826</v>
+        <v>59.44546610130899</v>
       </c>
       <c r="S6">
-        <v>0.4212679266313497</v>
+        <v>0.2679906313666447</v>
       </c>
       <c r="T6">
-        <v>0.4212679266313497</v>
+        <v>0.2679906313666447</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,7 +838,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.854503666666667</v>
+        <v>2.187103</v>
       </c>
       <c r="H7">
-        <v>5.563511</v>
+        <v>6.561309</v>
       </c>
       <c r="I7">
-        <v>0.9063081102645809</v>
+        <v>0.9194078401154859</v>
       </c>
       <c r="J7">
-        <v>0.9063081102645809</v>
+        <v>0.919407840115486</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +865,152 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.973308</v>
+        <v>4.076388666666666</v>
       </c>
       <c r="N7">
-        <v>8.919924</v>
+        <v>12.229166</v>
       </c>
       <c r="O7">
-        <v>0.3390368019222182</v>
+        <v>0.3934413518781783</v>
       </c>
       <c r="P7">
-        <v>0.3390368019222182</v>
+        <v>0.3934413518781784</v>
       </c>
       <c r="Q7">
-        <v>5.514010588129334</v>
+        <v>8.915481882032667</v>
       </c>
       <c r="R7">
-        <v>49.626095293164</v>
+        <v>80.23933693829399</v>
       </c>
       <c r="S7">
-        <v>0.3072718032602726</v>
+        <v>0.3617330635424328</v>
       </c>
       <c r="T7">
-        <v>0.3072718032602726</v>
+        <v>0.3617330635424329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.187103</v>
+      </c>
+      <c r="H8">
+        <v>6.561309</v>
+      </c>
+      <c r="I8">
+        <v>0.9194078401154859</v>
+      </c>
+      <c r="J8">
+        <v>0.919407840115486</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.229698</v>
+      </c>
+      <c r="N8">
+        <v>9.689094000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.311721195201271</v>
+      </c>
+      <c r="P8">
+        <v>0.3117211952012711</v>
+      </c>
+      <c r="Q8">
+        <v>7.063682184894001</v>
+      </c>
+      <c r="R8">
+        <v>63.573139664046</v>
+      </c>
+      <c r="S8">
+        <v>0.2865989107982184</v>
+      </c>
+      <c r="T8">
+        <v>0.2865989107982184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.187103</v>
+      </c>
+      <c r="H9">
+        <v>6.561309</v>
+      </c>
+      <c r="I9">
+        <v>0.9194078401154859</v>
+      </c>
+      <c r="J9">
+        <v>0.919407840115486</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.03476766666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.104303</v>
+      </c>
+      <c r="O9">
+        <v>0.003355675548516525</v>
+      </c>
+      <c r="P9">
+        <v>0.003355675548516525</v>
+      </c>
+      <c r="Q9">
+        <v>0.07604046806966668</v>
+      </c>
+      <c r="R9">
+        <v>0.684364212627</v>
+      </c>
+      <c r="S9">
+        <v>0.003085234408189927</v>
+      </c>
+      <c r="T9">
+        <v>0.003085234408189928</v>
       </c>
     </row>
   </sheetData>
